--- a/Binary Tourney Results.xlsx
+++ b/Binary Tourney Results.xlsx
@@ -1,38 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinpate/Desktop/Georgia Tech/ISYE7406/Project/ISYE 7406 Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59981B11-60D3-7944-A5C8-79E12209EC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE56373F-AAEA-5E4A-BB25-F25518774148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="1460" windowWidth="16020" windowHeight="15460" xr2:uid="{DA41BAAF-AE2B-4314-8E4C-CBFEA6AB2C52}"/>
+    <workbookView xWindow="12420" yWindow="1620" windowWidth="16020" windowHeight="15460" xr2:uid="{DA41BAAF-AE2B-4314-8E4C-CBFEA6AB2C52}"/>
   </bookViews>
   <sheets>
-    <sheet name="2022" sheetId="1" r:id="rId1"/>
-    <sheet name="2021" sheetId="2" r:id="rId2"/>
-    <sheet name="2019" sheetId="3" r:id="rId3"/>
-    <sheet name="2018" sheetId="4" r:id="rId4"/>
-    <sheet name="2017" sheetId="5" r:id="rId5"/>
-    <sheet name="2016" sheetId="6" r:id="rId6"/>
-    <sheet name="2015" sheetId="7" r:id="rId7"/>
-    <sheet name="2014" sheetId="8" r:id="rId8"/>
-    <sheet name="2013" sheetId="9" r:id="rId9"/>
-    <sheet name="2012" sheetId="10" r:id="rId10"/>
-    <sheet name="2011" sheetId="11" r:id="rId11"/>
-    <sheet name="2010" sheetId="12" r:id="rId12"/>
-    <sheet name="2009" sheetId="13" r:id="rId13"/>
-    <sheet name="2008" sheetId="14" r:id="rId14"/>
-    <sheet name="2007" sheetId="15" r:id="rId15"/>
-    <sheet name="2006" sheetId="16" r:id="rId16"/>
-    <sheet name="2005" sheetId="17" r:id="rId17"/>
-    <sheet name="2004" sheetId="18" r:id="rId18"/>
-    <sheet name="2003" sheetId="19" r:id="rId19"/>
-    <sheet name="2002" sheetId="20" r:id="rId20"/>
+    <sheet name="2023" sheetId="21" r:id="rId1"/>
+    <sheet name="2022" sheetId="1" r:id="rId2"/>
+    <sheet name="2021" sheetId="2" r:id="rId3"/>
+    <sheet name="2019" sheetId="3" r:id="rId4"/>
+    <sheet name="2018" sheetId="4" r:id="rId5"/>
+    <sheet name="2017" sheetId="5" r:id="rId6"/>
+    <sheet name="2016" sheetId="6" r:id="rId7"/>
+    <sheet name="2015" sheetId="7" r:id="rId8"/>
+    <sheet name="2014" sheetId="8" r:id="rId9"/>
+    <sheet name="2013" sheetId="9" r:id="rId10"/>
+    <sheet name="2012" sheetId="10" r:id="rId11"/>
+    <sheet name="2011" sheetId="11" r:id="rId12"/>
+    <sheet name="2010" sheetId="12" r:id="rId13"/>
+    <sheet name="2009" sheetId="13" r:id="rId14"/>
+    <sheet name="2008" sheetId="14" r:id="rId15"/>
+    <sheet name="2007" sheetId="15" r:id="rId16"/>
+    <sheet name="2006" sheetId="16" r:id="rId17"/>
+    <sheet name="2005" sheetId="17" r:id="rId18"/>
+    <sheet name="2004" sheetId="18" r:id="rId19"/>
+    <sheet name="2003" sheetId="19" r:id="rId20"/>
+    <sheet name="2002" sheetId="20" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="272">
   <si>
     <t>Team</t>
   </si>
@@ -847,6 +848,27 @@
   </si>
   <si>
     <t>College of Charleston</t>
+  </si>
+  <si>
+    <t>Charleston</t>
+  </si>
+  <si>
+    <t>Furman</t>
+  </si>
+  <si>
+    <t>Louisana</t>
+  </si>
+  <si>
+    <t>Kennesaw St.</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Southeast Missouri St.</t>
+  </si>
+  <si>
+    <t>Farleigh Dickinson</t>
   </si>
 </sst>
 </file>
@@ -1197,11 +1219,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A23AAC-74C7-419A-BC7E-F1527BBE8109}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3353CAC7-9738-3B44-BA0E-9F41934CEEC9}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1242,13 +1264,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1256,16 +1272,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1273,10 +1280,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1284,25 +1288,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1310,13 +1296,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>257</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1324,7 +1304,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1332,19 +1312,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1352,13 +1320,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1366,19 +1328,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1386,10 +1336,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>257</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1397,13 +1344,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1411,10 +1352,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1422,7 +1360,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1430,13 +1368,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1444,10 +1376,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1455,22 +1384,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1478,10 +1392,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1489,16 +1400,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1506,7 +1408,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1514,10 +1416,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1525,7 +1424,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1533,7 +1432,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1541,7 +1440,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1549,10 +1448,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1560,7 +1456,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1568,10 +1464,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1579,13 +1472,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1593,7 +1480,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1601,7 +1488,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1609,7 +1496,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1617,10 +1504,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>167</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1628,13 +1512,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1642,10 +1520,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -1653,10 +1528,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -1664,10 +1536,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1675,7 +1544,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -1683,7 +1552,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -1693,25 +1562,13 @@
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
       <c r="H39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>139</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -1719,13 +1576,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1733,7 +1584,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -1741,7 +1592,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -1749,7 +1600,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -1757,10 +1608,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -1768,7 +1616,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -1776,7 +1624,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -1784,7 +1632,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -1792,7 +1640,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -1800,7 +1648,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -1808,7 +1656,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>265</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -1816,7 +1664,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -1824,10 +1672,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -1835,7 +1680,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>118</v>
+        <v>266</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -1843,10 +1688,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
+        <v>267</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -1854,16 +1696,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -1871,7 +1704,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -1879,7 +1712,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>252</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -1887,7 +1720,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>252</v>
+        <v>140</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -1895,7 +1728,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -1903,7 +1736,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -1911,7 +1744,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>268</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -1919,7 +1752,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -1927,7 +1760,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -1935,7 +1768,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>233</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -1943,7 +1776,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>269</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -1951,7 +1784,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -1959,7 +1792,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -1967,7 +1800,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>271</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -1979,6 +1812,784 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3F360D-A7B8-42A3-A65D-18E4D0B8DA52}">
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>194</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>258</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>169</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>119</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>171</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>116</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>82</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>118</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>196</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>197</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>96</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>163</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>198</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>199</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>200</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>173</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34485B1A-8536-4A0D-94E3-0BC68796D675}">
   <dimension ref="A1:H69"/>
   <sheetViews>
@@ -2756,7 +3367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A3CCB3-DED1-474F-B2C6-7BE244DEDF3B}">
   <dimension ref="A1:H69"/>
   <sheetViews>
@@ -3537,7 +4148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2136427A-134F-4C84-B08D-F26381653756}">
   <dimension ref="A1:H65"/>
   <sheetViews>
@@ -4287,7 +4898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D606E218-B931-4D94-9628-8C59770DAAEE}">
   <dimension ref="A1:H65"/>
   <sheetViews>
@@ -5033,7 +5644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A3EE16-0730-4330-A3D5-C8AC6B87BB26}">
   <dimension ref="A1:H65"/>
   <sheetViews>
@@ -5783,7 +6394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E21F40-5F9E-431F-98AC-170E44732CCD}">
   <dimension ref="A1:H65"/>
   <sheetViews>
@@ -6529,7 +7140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4E2D1E-FD9A-40C4-B4C3-AD811987BA5E}">
   <dimension ref="A1:H65"/>
   <sheetViews>
@@ -7275,7 +7886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EF7E7C-5D23-4E0B-B460-F3155CCBAD76}">
   <dimension ref="A1:H65"/>
   <sheetViews>
@@ -8021,7 +8632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D1D68A-FE5B-4F2C-9648-D10AA0DC2676}">
   <dimension ref="A1:H65"/>
   <sheetViews>
@@ -8767,7 +9378,789 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A23AAC-74C7-419A-BC7E-F1527BBE8109}">
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>169</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>193</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>52</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>252</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>53</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>54</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>145</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>120</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>125</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>253</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>56</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>57</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB28277-4926-4493-914E-062DF09E6760}">
   <dimension ref="A1:H65"/>
   <sheetViews>
@@ -9513,7 +10906,753 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41349F0-3FD0-4555-98DD-1B4B5FED8252}">
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>242</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>150</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>235</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>247</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>212</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>98</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>153</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>248</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>218</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>170</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>171</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>117</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>139</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>164</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>198</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>114</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>222</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>249</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>250</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>96</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38220665-1C00-4CE1-9453-CC2C8ED2C084}">
   <dimension ref="A1:H69"/>
   <sheetViews>
@@ -10285,753 +12424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41349F0-3FD0-4555-98DD-1B4B5FED8252}">
-  <dimension ref="A1:H65"/>
-  <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>155</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>180</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>223</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>242</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>150</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>123</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>235</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>132</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>247</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>212</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>98</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>73</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>153</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>248</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>218</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>170</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>45</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>171</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>117</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>139</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>164</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>165</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>198</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>66</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>114</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>222</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>249</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>250</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>96</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF3A3F1-A666-4BC6-A402-7DD022402018}">
   <dimension ref="A1:H69"/>
   <sheetViews>
@@ -11806,7 +13199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E086961-D097-43E0-B2AE-E419D0232C4C}">
   <dimension ref="A1:H69"/>
   <sheetViews>
@@ -12587,7 +13980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1293D25A-FA51-4772-AB10-9052C7EF6FF0}">
   <dimension ref="A1:H69"/>
   <sheetViews>
@@ -13359,7 +14752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78327F09-5C82-43BA-B6A1-564694F4212F}">
   <dimension ref="A1:H69"/>
   <sheetViews>
@@ -14137,7 +15530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685DB871-F1F4-4227-94EB-3EDECC139BE5}">
   <dimension ref="A1:H69"/>
   <sheetViews>
@@ -14912,7 +16305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E571DC66-2EAE-41B2-B3F3-D1391D218D19}">
   <dimension ref="A1:H69"/>
   <sheetViews>
@@ -15682,782 +17075,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3F360D-A7B8-42A3-A65D-18E4D0B8DA52}">
-  <dimension ref="A1:H69"/>
-  <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>179</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>132</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>112</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>194</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>101</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>88</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>258</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>58</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>195</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>169</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>149</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>119</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>171</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>116</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>82</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>172</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>118</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>142</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>196</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>197</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>96</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>163</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>198</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>199</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>129</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>200</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>76</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>173</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>